--- a/SAMPLE_DATA.xlsx
+++ b/SAMPLE_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\programming\.Projects\dummPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E4AD86-4C39-430B-95BF-66936981CB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335CCCF6-CB46-40B2-B842-46966C8D8532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="6" xr2:uid="{565AA1BE-574C-4339-9D89-9496D878A62A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{565AA1BE-574C-4339-9D89-9496D878A62A}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST NAME" sheetId="1" r:id="rId1"/>
@@ -2248,7 +2248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC3FF46-D55D-40C0-A8C9-04DA75B8A729}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3272,7 +3272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0691E7FF-B249-4002-992C-255C6A6914E6}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3788,7 +3790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7361D1-377F-4FAD-81EA-B410F9749B17}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5914,7 +5918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3742081F-A355-4C27-B0E9-F689C8656C1A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/SAMPLE_DATA.xlsx
+++ b/SAMPLE_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\programming\.Projects\dummPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335CCCF6-CB46-40B2-B842-46966C8D8532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AC64DD-7834-4331-BF27-501CCF59A5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{565AA1BE-574C-4339-9D89-9496D878A62A}"/>
   </bookViews>

--- a/SAMPLE_DATA.xlsx
+++ b/SAMPLE_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\programming\.Projects\dummPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AC64DD-7834-4331-BF27-501CCF59A5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563D01B-E52D-4B5D-8368-34618E607A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{565AA1BE-574C-4339-9D89-9496D878A62A}"/>
   </bookViews>
@@ -2248,7 +2248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC3FF46-D55D-40C0-A8C9-04DA75B8A729}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A200"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3273,7 +3275,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A100"/>
+      <selection activeCell="A9" sqref="A9:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3791,7 +3793,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -3824,7 +3826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D82B8F-54AF-493F-BDA9-2DB141B232C6}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4340,7 +4344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F72B22E-6792-4625-93F2-C78DF8DBFAD4}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4401,7 +4407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1547BE5-3D9B-4176-8114-0AD015EF1D78}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A300"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
